--- a/spec/fixtures/three_orphans_xlsx.xlsx
+++ b/spec/fixtures/three_orphans_xlsx.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="117">
   <si>
     <t>الرقم المسلسل</t>
   </si>
@@ -231,149 +231,152 @@
     <t>الأب الثاني</t>
   </si>
   <si>
+    <t>مهندس</t>
+  </si>
+  <si>
+    <t>جرح</t>
+  </si>
+  <si>
+    <t>الأم الثانية</t>
+  </si>
+  <si>
+    <t>متوفاة</t>
+  </si>
+  <si>
+    <t>22/09/2005</t>
+  </si>
+  <si>
+    <t>أنثى</t>
+  </si>
+  <si>
+    <t>الصف الخامس</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>الوصي الثاني</t>
+  </si>
+  <si>
+    <t>أخ</t>
+  </si>
+  <si>
+    <t>حمص</t>
+  </si>
+  <si>
+    <t>مدينة حمص</t>
+  </si>
+  <si>
+    <t>الحي الثاني</t>
+  </si>
+  <si>
+    <t>التفصيل الثاني</t>
+  </si>
+  <si>
+    <t>خارج سوريا</t>
+  </si>
+  <si>
+    <t>أنطاكيا</t>
+  </si>
+  <si>
+    <t>الحي الخامس</t>
+  </si>
+  <si>
+    <t>التفصيل الثالث</t>
+  </si>
+  <si>
+    <t>skype.id</t>
+  </si>
+  <si>
+    <t>لا يوجد</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>مهندس</t>
-  </si>
-  <si>
-    <t>جرح</t>
-  </si>
-  <si>
-    <t>الأم الثانية</t>
-  </si>
-  <si>
-    <t>متوفاة</t>
-  </si>
-  <si>
-    <t>22/09/2005</t>
-  </si>
-  <si>
-    <t>أنثى</t>
-  </si>
-  <si>
-    <t>الصف الخامس</t>
+    <t>جهة أخرى</t>
+  </si>
+  <si>
+    <t>لا يوجد</t>
+  </si>
+  <si>
+    <t>الطفل الثالث</t>
+  </si>
+  <si>
+    <t>الأب الثالث</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>الوصي الثاني</t>
-  </si>
-  <si>
-    <t>أخ</t>
-  </si>
-  <si>
-    <t>حمص</t>
-  </si>
-  <si>
-    <t>مدينة حمص</t>
-  </si>
-  <si>
-    <t>الحي الثاني</t>
-  </si>
-  <si>
-    <t>التفصيل الثاني</t>
-  </si>
-  <si>
-    <t>خارج سوريا</t>
-  </si>
-  <si>
-    <t>أنطاكيا</t>
-  </si>
-  <si>
-    <t>الحي الخامس</t>
-  </si>
-  <si>
-    <t>التفصيل الثالث</t>
-  </si>
-  <si>
-    <t>skype.id</t>
-  </si>
-  <si>
-    <t>لا يوجد</t>
+    <t>لا يعمل</t>
+  </si>
+  <si>
+    <t>حلب</t>
+  </si>
+  <si>
+    <t>الأم الثالثة</t>
+  </si>
+  <si>
+    <t>موجودة</t>
+  </si>
+  <si>
+    <t>ذكر</t>
+  </si>
+  <si>
+    <t>مريض</t>
+  </si>
+  <si>
+    <t>الصف السادس</t>
+  </si>
+  <si>
+    <t>الوصي الثالث</t>
+  </si>
+  <si>
+    <t>خال</t>
+  </si>
+  <si>
+    <t>جواز السفر</t>
+  </si>
+  <si>
+    <t>حماة</t>
+  </si>
+  <si>
+    <t>مدينة حماة</t>
+  </si>
+  <si>
+    <t>الحي الثالث</t>
+  </si>
+  <si>
+    <t>الحي السادس</t>
+  </si>
+  <si>
+    <t>الشارع الرابع</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>جهة أخرى</t>
-  </si>
-  <si>
-    <t>لا يوجد</t>
-  </si>
-  <si>
-    <t>الطفل الثالث</t>
-  </si>
-  <si>
-    <t>الأب الثالث</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>لا يعمل</t>
-  </si>
-  <si>
-    <t>حلب</t>
-  </si>
-  <si>
-    <t>18/4/2013</t>
-  </si>
-  <si>
-    <t>الأم الثالثة</t>
-  </si>
-  <si>
-    <t>موجودة</t>
-  </si>
-  <si>
-    <t>ذكر</t>
-  </si>
-  <si>
-    <t>مريض</t>
-  </si>
-  <si>
-    <t>الصف السادس</t>
-  </si>
-  <si>
-    <t>الوصي الثالث</t>
-  </si>
-  <si>
-    <t>خال</t>
-  </si>
-  <si>
-    <t>جواز السفر</t>
-  </si>
-  <si>
-    <t>حماة</t>
-  </si>
-  <si>
-    <t>مدينة حماة</t>
-  </si>
-  <si>
-    <t>الحي الثالث</t>
-  </si>
-  <si>
-    <t>الحي السادس</t>
-  </si>
-  <si>
-    <t>الشارع الرابع</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>جهة ثالثة</t>
   </si>
   <si>
     <t>ملاحظات</t>
+  </si>
+  <si>
+    <t>متوفى</t>
+  </si>
+  <si>
+    <t>موجود</t>
+  </si>
+  <si>
+    <t>الأب متوفي؟</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -401,8 +404,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,8 +436,14 @@
         <bgColor rgb="FFD8D8D8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79646"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -726,11 +741,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -832,31 +865,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -878,8 +915,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1212,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL20"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1223,238 +1263,245 @@
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="15" width="8.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.1640625" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" customWidth="1"/>
-    <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="19" max="25" width="8.6640625" customWidth="1"/>
-    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.6640625" customWidth="1"/>
-    <col min="29" max="30" width="13.1640625" customWidth="1"/>
-    <col min="31" max="31" width="8.6640625" customWidth="1"/>
-    <col min="32" max="32" width="15.83203125" customWidth="1"/>
-    <col min="33" max="34" width="9.1640625" customWidth="1"/>
-    <col min="35" max="37" width="12" customWidth="1"/>
-    <col min="38" max="38" width="30.1640625" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="35" customWidth="1"/>
+    <col min="7" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="13" max="16" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="26" width="8.6640625" customWidth="1"/>
+    <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.6640625" customWidth="1"/>
+    <col min="30" max="31" width="13.1640625" customWidth="1"/>
+    <col min="32" max="32" width="8.6640625" customWidth="1"/>
+    <col min="33" max="33" width="15.83203125" customWidth="1"/>
+    <col min="34" max="35" width="9.1640625" customWidth="1"/>
+    <col min="36" max="38" width="12" customWidth="1"/>
+    <col min="39" max="39" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="25.5" customHeight="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:39" ht="25.5" customHeight="1">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="40" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="51" t="s">
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="49" t="s">
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
     </row>
-    <row r="2" spans="1:38" ht="29.25" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37" t="s">
+    <row r="2" spans="1:39" ht="29.25" customHeight="1">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="H2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="I2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="J2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="K2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="L2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="M2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="N2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="O2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="P2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="Q2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="45" t="s">
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="46" t="s">
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="37" t="s">
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="35" t="s">
+      <c r="AE2" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="37" t="s">
+      <c r="AF2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="35" t="s">
+      <c r="AG2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="37" t="s">
+      <c r="AH2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="35" t="s">
+      <c r="AI2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="38" t="s">
+      <c r="AJ2" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" s="39" t="s">
+      <c r="AK2" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="39" t="s">
+      <c r="AL2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" s="39" t="s">
+      <c r="AM2" s="36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="29.25" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="1" t="s">
+    <row r="3" spans="1:39" ht="29.25" customHeight="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="W3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Z3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AA3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AB3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AC3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
     </row>
-    <row r="4" spans="1:38" ht="23.25" customHeight="1">
+    <row r="4" spans="1:39" ht="23.25" customHeight="1">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1468,89 +1515,92 @@
         <v>47</v>
       </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="L4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="M4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="N4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="14"/>
+      <c r="P4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="Q4" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="R4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="19">
+      <c r="S4" s="19">
         <v>90231</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="T4" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="U4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="V4" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="W4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="W4" s="21"/>
-      <c r="X4" s="20" t="s">
+      <c r="X4" s="21"/>
+      <c r="Y4" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="Z4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Z4" s="18" t="s">
+      <c r="AA4" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="23">
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="23">
         <v>65431</v>
       </c>
-      <c r="AD4" s="21" t="s">
+      <c r="AE4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AE4" s="24" t="s">
+      <c r="AF4" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="25">
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="25">
         <v>0</v>
       </c>
-      <c r="AH4" s="21">
+      <c r="AI4" s="21">
         <v>0</v>
       </c>
-      <c r="AI4" s="9"/>
       <c r="AJ4" s="9"/>
       <c r="AK4" s="9"/>
-      <c r="AL4" s="26"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="26"/>
     </row>
-    <row r="5" spans="1:38" ht="23.25" customHeight="1">
+    <row r="5" spans="1:39" ht="23.25" customHeight="1">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -1561,196 +1611,200 @@
         <v>69</v>
       </c>
       <c r="D5" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="13" t="s">
+      <c r="I5" s="27">
+        <v>41034</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="27">
-        <v>41034</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="K5" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="L5" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="M5" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="N5" s="14"/>
+      <c r="O5" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13" t="s">
+      <c r="P5" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="Q5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="R5" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="Q5" s="18" t="s">
+      <c r="S5" s="19">
+        <v>761871</v>
+      </c>
+      <c r="T5" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="R5" s="19">
-        <v>761871</v>
-      </c>
-      <c r="S5" s="20" t="s">
+      <c r="U5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="T5" s="18" t="s">
+      <c r="V5" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="W5" s="22"/>
+      <c r="X5" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="V5" s="22"/>
-      <c r="W5" s="29" t="s">
+      <c r="Y5" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="X5" s="20" t="s">
+      <c r="Z5" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="Y5" s="18" t="s">
+      <c r="AA5" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="Z5" s="18" t="s">
+      <c r="AB5" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="AA5" s="18" t="s">
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="30" t="s">
+      <c r="AE5" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="AD5" s="29" t="s">
+      <c r="AF5" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AE5" s="25" t="s">
+      <c r="AG5" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="AF5" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG5" s="25">
+      <c r="AH5" s="25">
         <v>3</v>
       </c>
-      <c r="AH5" s="19">
+      <c r="AI5" s="19">
         <v>1</v>
       </c>
-      <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
-      <c r="AL5" s="31" t="s">
-        <v>93</v>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="31" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="23.25" customHeight="1">
+    <row r="6" spans="1:39" ht="23.25" customHeight="1">
       <c r="A6" s="9">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="32" t="s">
+      <c r="K6" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="L6" s="33">
+        <v>37987</v>
+      </c>
+      <c r="M6" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="N6" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K6" s="33">
-        <v>37987</v>
-      </c>
-      <c r="L6" s="14" t="s">
+      <c r="O6" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="P6" s="12"/>
+      <c r="Q6" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="R6" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="17" t="s">
+      <c r="S6" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="T6" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="R6" s="29" t="s">
+      <c r="U6" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="S6" s="20" t="s">
+      <c r="V6" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="T6" s="18" t="s">
+      <c r="W6" s="22"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA6" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="U6" s="18" t="s">
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="V6" s="22"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y6" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z6" s="18" t="s">
+      <c r="AD6" s="23">
+        <v>11231</v>
+      </c>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="29" t="s">
+      <c r="AG6" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="AC6" s="23">
-        <v>11231</v>
-      </c>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF6" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG6" s="25">
+      <c r="AH6" s="25">
         <v>1</v>
       </c>
-      <c r="AH6" s="19">
+      <c r="AI6" s="19">
         <v>2</v>
       </c>
-      <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
       <c r="AK6" s="9"/>
-      <c r="AL6" s="26" t="s">
-        <v>115</v>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="26" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="15.75" customHeight="1">
+    <row r="7" spans="1:39" ht="15.75" customHeight="1">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
@@ -1789,8 +1843,9 @@
       <c r="AJ7" s="34"/>
       <c r="AK7" s="34"/>
       <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
     </row>
-    <row r="8" spans="1:38" ht="15.75" customHeight="1">
+    <row r="8" spans="1:39" ht="15.75" customHeight="1">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -1829,8 +1884,9 @@
       <c r="AJ8" s="34"/>
       <c r="AK8" s="34"/>
       <c r="AL8" s="34"/>
+      <c r="AM8" s="34"/>
     </row>
-    <row r="9" spans="1:38" ht="15.75" customHeight="1">
+    <row r="9" spans="1:39" ht="15.75" customHeight="1">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -1869,8 +1925,9 @@
       <c r="AJ9" s="34"/>
       <c r="AK9" s="34"/>
       <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
     </row>
-    <row r="10" spans="1:38" ht="15.75" customHeight="1">
+    <row r="10" spans="1:39" ht="15.75" customHeight="1">
       <c r="A10" s="34"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -1909,8 +1966,9 @@
       <c r="AJ10" s="34"/>
       <c r="AK10" s="34"/>
       <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
     </row>
-    <row r="11" spans="1:38" ht="15.75" customHeight="1">
+    <row r="11" spans="1:39" ht="15.75" customHeight="1">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -1949,8 +2007,9 @@
       <c r="AJ11" s="34"/>
       <c r="AK11" s="34"/>
       <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
     </row>
-    <row r="12" spans="1:38" ht="15.75" customHeight="1">
+    <row r="12" spans="1:39" ht="15.75" customHeight="1">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -1989,8 +2048,9 @@
       <c r="AJ12" s="34"/>
       <c r="AK12" s="34"/>
       <c r="AL12" s="34"/>
+      <c r="AM12" s="34"/>
     </row>
-    <row r="13" spans="1:38" ht="15.75" customHeight="1">
+    <row r="13" spans="1:39" ht="15.75" customHeight="1">
       <c r="A13" s="34"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -2029,8 +2089,9 @@
       <c r="AJ13" s="34"/>
       <c r="AK13" s="34"/>
       <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
     </row>
-    <row r="14" spans="1:38" ht="15.75" customHeight="1">
+    <row r="14" spans="1:39" ht="15.75" customHeight="1">
       <c r="A14" s="34"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
@@ -2069,8 +2130,9 @@
       <c r="AJ14" s="34"/>
       <c r="AK14" s="34"/>
       <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
     </row>
-    <row r="15" spans="1:38" ht="15.75" customHeight="1">
+    <row r="15" spans="1:39" ht="15.75" customHeight="1">
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -2109,8 +2171,9 @@
       <c r="AJ15" s="34"/>
       <c r="AK15" s="34"/>
       <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
     </row>
-    <row r="16" spans="1:38" ht="15.75" customHeight="1">
+    <row r="16" spans="1:39" ht="15.75" customHeight="1">
       <c r="A16" s="34"/>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
@@ -2149,8 +2212,9 @@
       <c r="AJ16" s="34"/>
       <c r="AK16" s="34"/>
       <c r="AL16" s="34"/>
+      <c r="AM16" s="34"/>
     </row>
-    <row r="17" spans="1:38" ht="15.75" customHeight="1">
+    <row r="17" spans="1:39" ht="15.75" customHeight="1">
       <c r="A17" s="34"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -2189,8 +2253,9 @@
       <c r="AJ17" s="34"/>
       <c r="AK17" s="34"/>
       <c r="AL17" s="34"/>
+      <c r="AM17" s="34"/>
     </row>
-    <row r="18" spans="1:38" ht="15.75" customHeight="1">
+    <row r="18" spans="1:39" ht="15.75" customHeight="1">
       <c r="A18" s="34"/>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -2229,8 +2294,9 @@
       <c r="AJ18" s="34"/>
       <c r="AK18" s="34"/>
       <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
     </row>
-    <row r="19" spans="1:38" ht="15.75" customHeight="1">
+    <row r="19" spans="1:39" ht="15.75" customHeight="1">
       <c r="A19" s="34"/>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
@@ -2269,8 +2335,9 @@
       <c r="AJ19" s="34"/>
       <c r="AK19" s="34"/>
       <c r="AL19" s="34"/>
+      <c r="AM19" s="34"/>
     </row>
-    <row r="20" spans="1:38" ht="15.75" customHeight="1">
+    <row r="20" spans="1:39" ht="15.75" customHeight="1">
       <c r="A20" s="34"/>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -2309,41 +2376,43 @@
       <c r="AJ20" s="34"/>
       <c r="AK20" s="34"/>
       <c r="AL20" s="34"/>
+      <c r="AM20" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="AI2:AI3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="AE1:AL1"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="AF1:AM1"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="AM2:AM3"/>
     <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="K1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:AE1"/>
+    <mergeCell ref="C1:K1"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AJ2:AJ3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/spec/fixtures/three_orphans_xlsx.xlsx
+++ b/spec/fixtures/three_orphans_xlsx.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24620" windowHeight="15920" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="101">
   <si>
     <t>الرقم المسلسل</t>
   </si>
@@ -300,9 +304,6 @@
   </si>
   <si>
     <t>خال</t>
-  </si>
-  <si>
-    <t>جواز السفر</t>
   </si>
   <si>
     <t>حماة</t>
@@ -326,13 +327,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -340,22 +336,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -363,7 +344,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -371,14 +352,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="FreeSans"/>
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="FreeSans"/>
@@ -425,364 +406,425 @@
     </fill>
   </fills>
   <borders count="22">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="dotted"/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dotted"/>
-      <right style="dotted"/>
-      <top style="thin"/>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dotted"/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dotted"/>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="dotted"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="dotted"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="dotted"/>
-      <top style="dotted"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dotted"/>
-      <right style="dotted"/>
-      <top style="dotted"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dotted"/>
-      <right style="thin"/>
-      <top style="dotted"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="dotted"/>
-      <top style="dotted"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="dotted"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="dotted"/>
-      <top style="thin"/>
-      <bottom style="dotted"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dotted"/>
-      <right style="dotted"/>
-      <top style="thin"/>
-      <bottom style="dotted"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dotted"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="dotted"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="dotted"/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="dotted"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dotted"/>
-      <right style="dotted"/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="dotted"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dotted"/>
-      <right style="thin"/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="dotted"/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -841,574 +883,877 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ6" activeCellId="0" sqref="AJ6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="8.66836734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.3367346938776"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.5"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.5"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="0" width="8.66836734693878"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.1683673469388"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.66836734693878"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" hidden="false" max="26" min="20" style="0" width="8.66836734693878"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="12.8316326530612"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="8.66836734693878"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="0" width="13.1683673469388"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="8.66836734693878"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="15.8316326530612"/>
-    <col collapsed="false" hidden="false" max="35" min="34" style="0" width="9.16326530612245"/>
-    <col collapsed="false" hidden="false" max="38" min="36" style="0" width="11.9948979591837"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="30.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="17.3316326530612"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:39" ht="25.5" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="4" t="s">
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="5" t="s">
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
     </row>
-    <row r="2" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:39" ht="29.25" customHeight="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12" t="s">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="13" t="s">
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="6" t="s">
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AE2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="14" t="s">
+      <c r="AG2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AH2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AI2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AK2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AL2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AM2" s="41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="16" t="s">
+    <row r="3" spans="1:39" ht="29.25" customHeight="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="T3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W3" s="21" t="s">
+      <c r="W3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="22" t="s">
+      <c r="X3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Y3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="Z3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AA3" s="20" t="s">
+      <c r="AA3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AB3" s="21" t="s">
+      <c r="AB3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="22" t="s">
+      <c r="AC3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="n">
+    <row r="4" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="N4" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="28"/>
-      <c r="P4" s="27" t="s">
+      <c r="O4" s="27"/>
+      <c r="P4" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="32" t="s">
+      <c r="R4" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="33" t="n">
+      <c r="S4" s="32">
         <v>90231</v>
       </c>
-      <c r="T4" s="34" t="s">
+      <c r="T4" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="U4" s="32" t="s">
+      <c r="U4" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="V4" s="32" t="s">
+      <c r="V4" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="W4" s="32" t="s">
+      <c r="W4" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="34" t="s">
+      <c r="X4" s="32"/>
+      <c r="Y4" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Z4" s="32" t="s">
+      <c r="Z4" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="AA4" s="32" t="s">
+      <c r="AA4" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="35" t="n">
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="34">
         <v>65431</v>
       </c>
-      <c r="AE4" s="36" t="s">
+      <c r="AE4" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="AF4" s="37" t="s">
+      <c r="AF4" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="31" t="n">
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="30">
         <v>0</v>
       </c>
-      <c r="AI4" s="33" t="n">
+      <c r="AI4" s="32">
         <v>0</v>
       </c>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="38"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="37"/>
     </row>
-    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="n">
+    <row r="5" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A5" s="23">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="27"/>
+      <c r="H5" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="39" t="n">
+      <c r="I5" s="38">
         <v>41034</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="29" t="s">
+      <c r="N5" s="27"/>
+      <c r="O5" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="P5" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="R5" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="S5" s="33" t="n">
+      <c r="S5" s="32">
         <v>761871</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="U5" s="32" t="s">
+      <c r="U5" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="V5" s="32" t="s">
+      <c r="V5" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="W5" s="32"/>
-      <c r="X5" s="36" t="s">
+      <c r="W5" s="31"/>
+      <c r="X5" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="Y5" s="34" t="s">
+      <c r="Y5" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="Z5" s="32" t="s">
+      <c r="Z5" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="AA5" s="32" t="s">
+      <c r="AA5" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="AB5" s="32" t="s">
+      <c r="AB5" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="35" t="s">
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="AE5" s="36" t="s">
+      <c r="AE5" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="AF5" s="37" t="s">
+      <c r="AF5" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AG5" s="36" t="s">
+      <c r="AG5" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="AH5" s="31" t="n">
+      <c r="AH5" s="30">
         <v>3</v>
       </c>
-      <c r="AI5" s="33" t="n">
+      <c r="AI5" s="32">
         <v>1</v>
       </c>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="40" t="s">
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="23"/>
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="39" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="n">
+    <row r="6" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A6" s="23">
         <v>1</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29" t="s">
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="41" t="n">
+      <c r="L6" s="40">
         <v>37987</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="O6" s="29" t="s">
+      <c r="O6" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="31" t="s">
+      <c r="P6" s="25"/>
+      <c r="Q6" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="R6" s="32" t="s">
+      <c r="R6" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="S6" s="36" t="s">
+      <c r="S6" s="35">
+        <v>548392</v>
+      </c>
+      <c r="T6" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="T6" s="34" t="s">
+      <c r="U6" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="U6" s="32" t="s">
+      <c r="V6" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="V6" s="32" t="s">
+      <c r="W6" s="31"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z6" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA6" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="W6" s="32"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z6" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA6" s="32" t="s">
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="36" t="s">
+      <c r="AD6" s="34">
+        <v>11231</v>
+      </c>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG6" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="AD6" s="35" t="n">
-        <v>11231</v>
-      </c>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG6" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH6" s="31" t="n">
+      <c r="AH6" s="30">
         <v>1</v>
       </c>
-      <c r="AI6" s="33" t="n">
+      <c r="AI6" s="32">
         <v>1</v>
       </c>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="40" t="s">
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="39" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T1:AE1"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="AF1:AM1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -1425,25 +1770,22 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:AE1"/>
     <mergeCell ref="T2:X2"/>
     <mergeCell ref="Y2:AC2"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/spec/fixtures/three_orphans_xlsx.xlsx
+++ b/spec/fixtures/three_orphans_xlsx.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
@@ -22,7 +22,7 @@
     <definedName name="مكفول_خرجيا">Lookups!$G$2:$G$3</definedName>
     <definedName name="يذهب_للمدرسة">Lookups!$J$2:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="111">
   <si>
     <t>المهنة</t>
   </si>
@@ -280,24 +280,15 @@
     <t>اسم العائلة</t>
   </si>
   <si>
-    <t>محمد</t>
-  </si>
-  <si>
     <t>نور الدين</t>
   </si>
   <si>
-    <t>مايا</t>
-  </si>
-  <si>
     <t>سعد</t>
   </si>
   <si>
     <t>الكركيري</t>
   </si>
   <si>
-    <t>حسن</t>
-  </si>
-  <si>
     <t>فراس</t>
   </si>
   <si>
@@ -310,15 +301,9 @@
     <t>لايوجد</t>
   </si>
   <si>
-    <t>غير معروف</t>
-  </si>
-  <si>
     <t>جلطة</t>
   </si>
   <si>
-    <t>قناص</t>
-  </si>
-  <si>
     <t>مفيدة سعاد</t>
   </si>
   <si>
@@ -371,6 +356,15 @@
   </si>
   <si>
     <t>skype</t>
+  </si>
+  <si>
+    <t>Name9</t>
+  </si>
+  <si>
+    <t>Name10</t>
+  </si>
+  <si>
+    <t>Name11</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1071,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1099,8 +1093,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1331,6 +1341,111 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1346,18 +1461,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1367,100 +1470,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1"/>
     <cellStyle name="Normal 11" xfId="2"/>
@@ -1782,10 +1811,10 @@
   <dimension ref="A1:AN11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1818,175 +1847,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="103" t="s">
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="124" t="s">
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="108" t="s">
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="109"/>
-      <c r="AI1" s="109"/>
-      <c r="AJ1" s="109"/>
-      <c r="AK1" s="109"/>
-      <c r="AL1" s="109"/>
-      <c r="AM1" s="109"/>
-      <c r="AN1" s="110"/>
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="98"/>
+      <c r="AK1" s="98"/>
+      <c r="AL1" s="98"/>
+      <c r="AM1" s="98"/>
+      <c r="AN1" s="99"/>
     </row>
     <row r="2" spans="1:40" s="7" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="106" t="s">
+      <c r="A2" s="130"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="101" t="s">
+      <c r="E2" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="99" t="s">
+      <c r="H2" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="122" t="s">
+      <c r="J2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="101" t="s">
+      <c r="K2" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="129" t="s">
+      <c r="L2" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="131" t="s">
+      <c r="M2" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="101" t="s">
+      <c r="N2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="99" t="s">
+      <c r="O2" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="99" t="s">
+      <c r="P2" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="117" t="s">
+      <c r="Q2" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="133" t="s">
+      <c r="R2" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="134"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="125" t="s">
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="128" t="s">
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="126"/>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="126"/>
-      <c r="AD2" s="127"/>
-      <c r="AE2" s="115" t="s">
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="111" t="s">
+      <c r="AF2" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="106" t="s">
+      <c r="AG2" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="AH2" s="97" t="s">
+      <c r="AH2" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="115" t="s">
+      <c r="AI2" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="111" t="s">
+      <c r="AJ2" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="AK2" s="113" t="s">
+      <c r="AK2" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="AL2" s="119" t="s">
+      <c r="AL2" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" s="119" t="s">
+      <c r="AM2" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" s="119" t="s">
+      <c r="AN2" s="95" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="7" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="118"/>
+      <c r="A3" s="131"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="128"/>
       <c r="R3" s="8" t="s">
         <v>30</v>
       </c>
@@ -2026,35 +2055,35 @@
       <c r="AD3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="112"/>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="98"/>
-      <c r="AI3" s="116"/>
-      <c r="AJ3" s="112"/>
-      <c r="AK3" s="114"/>
-      <c r="AL3" s="120"/>
-      <c r="AM3" s="120"/>
-      <c r="AN3" s="120"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="124"/>
+      <c r="AG3" s="126"/>
+      <c r="AH3" s="133"/>
+      <c r="AI3" s="122"/>
+      <c r="AJ3" s="124"/>
+      <c r="AK3" s="102"/>
+      <c r="AL3" s="96"/>
+      <c r="AM3" s="96"/>
+      <c r="AN3" s="96"/>
     </row>
     <row r="4" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="16">
         <v>1</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G4" s="66" t="s">
         <v>41</v>
@@ -2063,10 +2092,13 @@
         <v>52</v>
       </c>
       <c r="I4" s="66" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="J4" s="67">
+        <v>40913</v>
       </c>
       <c r="K4" s="65" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L4" s="71" t="s">
         <v>45</v>
@@ -2085,10 +2117,10 @@
         <v>42</v>
       </c>
       <c r="R4" s="85" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="S4" s="66" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="T4" s="81">
         <v>5445489</v>
@@ -2100,22 +2132,22 @@
         <v>53</v>
       </c>
       <c r="W4" s="74" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="X4" s="74" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Y4" s="45" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="Z4" s="86" t="s">
         <v>51</v>
       </c>
       <c r="AA4" s="74" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AB4" s="74" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AC4" s="46"/>
       <c r="AD4" s="45"/>
@@ -2123,7 +2155,7 @@
         <v>963943235556</v>
       </c>
       <c r="AF4" s="92" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AG4" s="93" t="s">
         <v>42</v>
@@ -2145,30 +2177,27 @@
         <v>2</v>
       </c>
       <c r="B5" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>86</v>
-      </c>
       <c r="E5" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="67">
-        <v>40913</v>
-      </c>
       <c r="K5" s="72" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>46</v>
@@ -2185,10 +2214,10 @@
       <c r="P5" s="20"/>
       <c r="Q5" s="26"/>
       <c r="R5" s="85" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="S5" s="23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="T5" s="27">
         <v>48979631</v>
@@ -2197,10 +2226,10 @@
         <v>50</v>
       </c>
       <c r="V5" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="W5" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="X5" s="20"/>
       <c r="Y5" s="24"/>
@@ -2211,12 +2240,12 @@
         <v>54</v>
       </c>
       <c r="AB5" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AC5" s="20"/>
       <c r="AD5" s="24"/>
       <c r="AE5" s="29" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AF5" s="30"/>
       <c r="AG5" s="28" t="s">
@@ -2239,32 +2268,26 @@
         <v>3</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="94"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="72" t="s">
         <v>92</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="22">
-        <v>37643</v>
-      </c>
-      <c r="K6" s="72" t="s">
-        <v>97</v>
       </c>
       <c r="L6" s="73" t="s">
         <v>45</v>
@@ -2279,16 +2302,16 @@
         <v>79</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Q6" s="26" t="s">
         <v>41</v>
       </c>
       <c r="R6" s="85" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="S6" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="T6" s="27">
         <v>4848497</v>
@@ -2300,7 +2323,7 @@
         <v>52</v>
       </c>
       <c r="W6" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="X6" s="20"/>
       <c r="Y6" s="24"/>
@@ -2311,17 +2334,17 @@
         <v>52</v>
       </c>
       <c r="AB6" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AC6" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AD6" s="24"/>
       <c r="AE6" s="29">
         <v>963315129874</v>
       </c>
       <c r="AF6" s="30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AG6" s="28" t="s">
         <v>42</v>
@@ -2546,6 +2569,24 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="34">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="AM2:AM3"/>
     <mergeCell ref="AG1:AN1"/>
     <mergeCell ref="B1:B3"/>
@@ -2562,24 +2603,6 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E1048576 D7:D11 E2:E6 E12">
@@ -2609,7 +2632,7 @@
     <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4:R6 K16:K1048576 C1 B16:D1048576 C2:D6 J7:J11 K2:K6 K12 A7:C11 B1:B6 B12:D12">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J16:J1048576 I7:I11 J12 J5:J6 J2:J3">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J16:J1048576 I7:I11 J12 J2:J4 J6">
       <formula1>34700</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M16:M1048576 L7:L11 M1:M6 M12">
